--- a/DOM_Banner/output/dept_banner/Sachin Chaudhary_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Sachin Chaudhary_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH15"/>
+  <dimension ref="A1:AH19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1980,15 +1980,535 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>https://openalex.org/W3039074189</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Pattern of Road Traffic Accident Patients Admitted In Government Medical College and Hospital Nagpur – A Cross Sectional Study</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>list(au_id = c("https://openalex.org/A5040899345", "https://openalex.org/A5090400787", "https://openalex.org/A5047964975", "https://openalex.org/A5021789119"), au_display_name = c("Prafulla Sune", "Sandeep Bhelkar", "Uday Narlawar", "Sanjeev Chaudhary"), au_orcid = c(NA, NA, NA, NA), author_position = c("first", "middle", "middle", "last"), au_affiliation_raw = c("GMC Nagpur, Nagpur", "GMC Nagpur, Nagpur", "GMC Nagpur, Nagpur", "GMC Nagpur, Nagpur"), institution_id = c("https://openalex.org/I168974072", 
+"https://openalex.org/I168974072", "https://openalex.org/I168974072", "https://openalex.org/I168974072"), institution_display_name = c("Government Medical College", "Government Medical College", "Government Medical College", "Government Medical College"), institution_ror = c("https://ror.org/026b7da27", "https://ror.org/026b7da27", "https://ror.org/026b7da27", "https://ror.org/026b7da27"), institution_country_code = c("IN", "IN", "IN", "IN"), institution_type = c("education", "education", "education", 
+"education"), institution_lineage = c("https://openalex.org/I168974072", "https://openalex.org/I168974072", "https://openalex.org/I168974072", "https://openalex.org/I168974072"))</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Introduction- Injuries are increasingly recognized as a global public health epidemic. Around the world, almost 16,000 people die every-day from all types of injuries. Injuries represent 12% of the global burden of disease, the third most important cause of overall mortality and the main cause of death among 1-40-year age groups.&amp;#x0D; Methodology- This hospital based cross-sectional study was conducted among the road traffic accident patients admitted in trauma care center of Government Medical College and Hospital Nagpur.&amp;#x0D; Result- Most common type of injury was abrasion in 91.45% followed by laceration in 79.61% of study subjects. Other common injuries were contusion, fracture, internal hemorrhage, crush injury and dislocation. Majority of the study subjects i.e. 67.11% had head injury.&amp;#x0D; Conclusion- Head injury was the most common injury found in the study. Abrasion and laceration was also more commonly found in study subjects. Head injury was found more in non-users of personal protective devices which was statistically significant.</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2022-03-10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>National journal of community medicine</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://openalex.org/S2764358632</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>0976-3325</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.5455/njcm.20200324100821</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>https://njcmindia.com/index.php/file/article/download/314/188</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>cc-by-sa</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>publishedVersion</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>hybrid</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>https://njcmindia.com/index.php/file/article/download/314/188</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>https://api.openalex.org/works?filter=cites:W3039074189</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>c(openalex = "https://openalex.org/W3039074189", doi = "https://doi.org/10.5455/njcm.20200324100821", mag = "3039074189")</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.5455/njcm.20200324100821</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>c("https://openalex.org/W2058268992", "https://openalex.org/W2103266699", "https://openalex.org/W2110206069", "https://openalex.org/W2132165965", "https://openalex.org/W2314697283", "https://openalex.org/W2323699862", "https://openalex.org/W2883058638")</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>c("https://openalex.org/W2791959495", "https://openalex.org/W2070540847", "https://openalex.org/W2275554183", "https://openalex.org/W2278806788", "https://openalex.org/W3035266956", "https://openalex.org/W1481206241", "https://openalex.org/W4242352147", "https://openalex.org/W2170927500", "https://openalex.org/W1967302349", "https://openalex.org/W4281555576")</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4210649205</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Awareness and Satisfaction About COVAXIN Vaccination Services at an Immunization Clinic in Nagpur: A Cross-Sectional Study</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>list(au_id = c("https://openalex.org/A5072958078", "https://openalex.org/A5021789119", "https://openalex.org/A5031555037", "https://openalex.org/A5047964975", "https://openalex.org/A5070154438", "https://openalex.org/A5029243093"), au_display_name = c("Ujwala Ukey", "Sanjeev Chaudhary", "Sarita Sharma", "Uday Narlawar", "Ravikant Singh", "Aditi J Dabir"), au_orcid = c(NA, NA, "https://orcid.org/0000-0002-9720-2244", NA, NA, NA), author_position = c("first", "middle", "middle", "middle", "middle", 
+"last"), au_affiliation_raw = c("", "", "", "", "", ""), institution_id = c(NA, NA, NA, NA, NA, NA), institution_display_name = c(NA, NA, NA, NA, NA, NA), institution_ror = c(NA, NA, NA, NA, NA, NA), institution_country_code = c(NA, NA, NA, NA, NA, NA), institution_type = c(NA, NA, NA, NA, NA, NA), institution_lineage = c(NA, NA, NA, NA, NA, NA))</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Introduction Initially, coronavirus disease 2019 (COVID-19) vaccination was started in India for the elderly above 60 years of age. Adults with any comorbidity have been gradually included in the vaccination drive. It is empirical to gain insight into the satisfaction of these beneficiaries with the vaccination as it may act as an influencing factor for receiving the vaccine. Materials and methods This was a descriptive cross-sectional study carried out at the COVID-19 vaccination clinic of the Government Medical College and Hospital, Nagpur, among individuals above 60 years of age and those from 45 to 60 years of age with comorbidity. The survey tool was a predesigned structured questionnaire that had close-ended questions on various aspects of awareness about the COVID-19 vaccines and their satisfaction with the immunization center. Interviews were conducted by two interviewers on each day. Data were analyzed using open software Epi Info (CDC, Atlanta, Georgia). The chi-square test was applied as a test of significance. Results A total of 290 subjects participated in the study. The majority had correct knowledge about COVID-19 vaccination and appropriate COVID-19 behavior after vaccination. Fever and body ache were known to most of the subjects as adverse effects following immunization. Social media was the most common source of knowledge. The majority of the subjects were satisfied with the services provided at the vaccination center, but there was no difference as per age, gender, or residential status of the subjects. Conclusion Despite mixed rumors about the COVID-19 vaccine, the majority of the study subjects were well satisfied with the vaccination. They were apparently having fair awareness about the vaccine.</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2022-01-06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Cureus</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://openalex.org/S2738950867</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Cureus, Inc.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2168-8184</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.7759/cureus.20983</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>https://www.cureus.com/articles/80272-awareness-and-satisfaction-about-covaxin-vaccination-services-at-an-immunization-clinic-in-nagpur-a-cross-sectional-study.pdf</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>publishedVersion</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>https://www.cureus.com/articles/80272-awareness-and-satisfaction-about-covaxin-vaccination-services-at-an-immunization-clinic-in-nagpur-a-cross-sectional-study.pdf</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>https://api.openalex.org/works?filter=cites:W4210649205</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>c(openalex = "https://openalex.org/W4210649205", doi = "https://doi.org/10.7759/cureus.20983", pmid = "https://pubmed.ncbi.nlm.nih.gov/35154959")</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.7759/cureus.20983</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>c("https://openalex.org/W2766680409", "https://openalex.org/W3017185871", "https://openalex.org/W3046577186", "https://openalex.org/W3048424114", "https://openalex.org/W3093974194", "https://openalex.org/W3156243989", "https://openalex.org/W3158768260", "https://openalex.org/W3180633927", "https://openalex.org/W3181028174", "https://openalex.org/W3183958795", "https://openalex.org/W3187429287", "https://openalex.org/W3197228561", "https://openalex.org/W3208197226")</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>c("https://openalex.org/W2981105526", "https://openalex.org/W2002551728", "https://openalex.org/W979319891", "https://openalex.org/W4386252105", "https://openalex.org/W2947320870", "https://openalex.org/W4367394835", "https://openalex.org/W2417808682", "https://openalex.org/W3135579318", "https://openalex.org/W3025685877", "https://openalex.org/W1929727402")</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4220807774</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Anaesthetic management of severe dextroscoliosis in a post-covid patient undergoing lumbar fixation and laminectomy</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>list(au_id = c("https://openalex.org/A5071817833", "https://openalex.org/A5091645233", "https://openalex.org/A5021789119", "https://openalex.org/A5041799937", "https://openalex.org/A5014814074"), au_display_name = c("Radhika Bajaj", "Amol Singam", "Sanjeev Chaudhary", "Rahul Chaudhary", "Parag Dongre"), au_orcid = c(NA, NA, NA, "https://orcid.org/0000-0002-3276-385X", NA), author_position = c("first", "middle", "middle", "middle", "last"), au_affiliation_raw = c("", "", "", "", ""), institution_id = c(NA, 
+NA, NA, NA, NA), institution_display_name = c(NA, NA, NA, NA, NA), institution_ror = c(NA, NA, NA, NA, NA), institution_country_code = c(NA, NA, NA, NA, NA), institution_type = c(NA, NA, NA, NA, NA), institution_lineage = c(NA, NA, NA, NA, NA))</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2022-03-11</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Medical science</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://openalex.org/S4210211701</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2321-7359</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.54905/disssi/v26i121/ms97e2108</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>http://discoveryjournals.org/medicalscience/current_issue/v26/n121/ms97e2108.pdf#zoom=125</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>publishedVersion</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>http://discoveryjournals.org/medicalscience/current_issue/v26/n121/ms97e2108.pdf#zoom=125</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>https://api.openalex.org/works?filter=cites:W4220807774</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>c(openalex = "https://openalex.org/W4220807774", doi = "https://doi.org/10.54905/disssi/v26i121/ms97e2108")</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.54905/disssi/v26i121/ms97e2108</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>c("https://openalex.org/W4206669628", "https://openalex.org/W3198183218", "https://openalex.org/W3176864053", "https://openalex.org/W4382894326", "https://openalex.org/W3084498529", "https://openalex.org/W3020699490", "https://openalex.org/W4292098121", "https://openalex.org/W3036314732", "https://openalex.org/W4205317059", "https://openalex.org/W3009669391")</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4284709707</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>A Comprehensive Review of Experimental Animal Models of Hepatopathy.</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>list(au_id = c("https://openalex.org/A5022011236", "https://openalex.org/A5015736770", "https://openalex.org/A5066676165", "https://openalex.org/A5077166501", "https://openalex.org/A5019790926", "https://openalex.org/A5042965472", "https://openalex.org/A5038598633", "https://openalex.org/A5085340731"), au_display_name = c("Ramesh K. Gupta", "Sachin Chaudhary", "Abdel‐Nasser El‐Shorbagi", "Udai Vir Singh Sara", "P.K. Shukla", "Sudhansu Ranjan Swain", "Jagannath Sahoo", "P. N. Murthy"), au_orcid = c("https://orcid.org/0000-0003-0355-532X", 
 "https://orcid.org/0000-0001-5192-9336", "https://orcid.org/0000-0002-3042-6980", "https://orcid.org/0000-0001-7854-2350", "https://orcid.org/0000-0003-1286-4183", NA, "https://orcid.org/0000-0001-8701-7793", "https://orcid.org/0000-0001-9649-7848"), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("1Department of Pharmacology, Hygia Institute of Pharmaceutical Education and Research Lucknow, Uttar Pradesh, India", "2Department of Medicinal Chemistry, College of Pharmacy, University of Sharjah, Sharjah, United Arab Emirates", 
@@ -1997,142 +2517,142 @@
 "https://ror.org/00engpz63", "https://ror.org/00engpz63", NA, NA, NA, "https://ror.org/01v5k4d73", "https://ror.org/00j4pe902"), institution_country_code = c(NA, "AE", "AE", NA, NA, NA, "IN", "IN"), institution_type = c(NA, "education", "education", NA, NA, NA, "education", "education"), institution_lineage = c(NA, "https://openalex.org/I29891158", "https://openalex.org/I29891158", NA, NA, NA, "https://openalex.org/I933318745", "https://openalex.org/I250200457"))</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>At this moment, liver dysfunction is a major source of destruction, and its widespreadity is accentuated in the developed republics. The liver is an imperative organ of the body and is involved in metabolism and regulation. The large number of medications, toxins, and plant-derived products has been claimed to cause liver dysfunction, which is potentially life intimidating to humans. Currently, there is a shortfall in encouraging treatment for treating patients with liver dysfunction due to the nonexistence of empathy for gesturing offenders serviceable in the pathogenesis of liver toxicity. Hepatic dysfunction is manifested by hepatic karyopyknotic, eosinophilic or acidophilic cell plasm, followed by excessive steatosis, liver injury, and oxidative degradation of lipids that cause centrilobular necrosis in hepatocytes. Different signaling mechanism, like activation of Kupffer cells, NK cells, inflammatory mediators, and ROS are associated with the pathogenesis of liver dysfunction. A good empathy of chief mechanisms is prerequisite for the scheming of novel curative medications. Consequently, animal models are being developed to impressionist hepatic ailments. From the several decades, researchers are using distinctive animal models for discovering and understanding pathogenesis of hepatic ailments and associated abusiveness. This current review has been framed to discuss numerous new and traditional experimental models for hepatotoxicity studies. Numerous animal models have been evolved to evaluate the pathogenesis and develop drugs for hepatotoxicity. Experimental modes of hepatotoxicity are influential for invention of novel molecular signaling trails for the improvement of human health.</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2022-06-30</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Biomedical and Pharmacology Journal</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>https://openalex.org/S2764856905</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Oriental Scientific Publishing Company</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>0974-6242</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>https://doi.org/10.13005/bpj/2397</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>563</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>578</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="R13" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>https://doi.org/10.13005/bpj/2397</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="X13" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="Y13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="Z13" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="AA10" t="inlineStr">
+      <c r="AA13" t="inlineStr">
         <is>
           <t>https://api.openalex.org/works?filter=cites:W4284709707</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AB13" t="inlineStr">
         <is>
           <t>c(openalex = "https://openalex.org/W4284709707", doi = "https://doi.org/10.13005/bpj/2397")</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>https://doi.org/10.13005/bpj/2397</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>article</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>c("https://openalex.org/W43381461", "https://openalex.org/W79740885", "https://openalex.org/W156714743", "https://openalex.org/W180791819", "https://openalex.org/W1809679124", "https://openalex.org/W1873279410", "https://openalex.org/W1968517768", "https://openalex.org/W1972220283", "https://openalex.org/W1974863952", "https://openalex.org/W1975645266", "https://openalex.org/W1981745412", "https://openalex.org/W1997474235", "https://openalex.org/W2005126071", "https://openalex.org/W2010487798", "https://openalex.org/W2013008778", 
 "https://openalex.org/W2015577282", "https://openalex.org/W2016001837", "https://openalex.org/W2017940118", "https://openalex.org/W2020168919", "https://openalex.org/W2020976497", "https://openalex.org/W2022959784", "https://openalex.org/W2025501549", "https://openalex.org/W2026334427", "https://openalex.org/W2026865649", "https://openalex.org/W2028132386", "https://openalex.org/W2032891608", "https://openalex.org/W2036443789", "https://openalex.org/W2040420065", "https://openalex.org/W2041706667", 
@@ -2142,34 +2662,34 @@
 )</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
+      <c r="AF13" t="inlineStr">
         <is>
           <t>c("https://openalex.org/W3112487421", "https://openalex.org/W2312821981", "https://openalex.org/W2418003878", "https://openalex.org/W2067586092", "https://openalex.org/W2345616064", "https://openalex.org/W2984587487", "https://openalex.org/W2134511984", "https://openalex.org/W2416769203", "https://openalex.org/W2358095446", "https://openalex.org/W1972176178")</t>
         </is>
       </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
         <is>
           <t>FALSE</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>https://openalex.org/W4293475271</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>Prophylaxis in Lung Transplant Recipients</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>list(au_id = c("https://openalex.org/A5011892177", "https://openalex.org/A5090480697", "https://openalex.org/A5079086397", "https://openalex.org/A5036878633"), au_display_name = c("Joshua Malo", "Bhupinder Natt", "Sachin Chaudhary", "Kenneth S. Knox"), au_orcid = c("https://orcid.org/0000-0003-0644-7754", "https://orcid.org/0000-0002-3871-0513", "https://orcid.org/0000-0003-1169-2332", NA), author_position = c("first", "middle", "middle", "last"), au_affiliation_raw = c("Department of Medicine, University of Arizona College of Medicine Tucson , Tucson, AZ , USA", 
 "Department of Medicine, University of Arizona College of Medicine Tucson , Tucson, AZ , USA", "Department of Medicine, University of Arizona College of Medicine Tucson , Tucson, AZ , USA", "Department of Medicine, University of Arizona College of Medicine Phoenix , Phoenix, AZ , USA"), institution_id = c("https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243"), institution_display_name = c("University of Arizona", 
@@ -2177,174 +2697,174 @@
 "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960"))</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>To theEditor—We read the article by Truong and colleagues with great interest [1]. Our lung transplant program in Arizona has also adopted a universal lifelong fungal prophylaxis protocol with similarly excellent results in reducing incident coccidioidomycosis among lung transplant recipients. Despite the excellent tolerance reported by Truong et al, challenges may arise for patients who need to stop prophylaxis due to side effects or financial concerns or for patients who leave the endemic area and wish to discontinue prophylaxis. Moreover, many patients who receive transplants at centers elsewhere and relocate to regions endemic for coccidioidomycosis will not be on a fungal prophylaxis regimen as recommendations regarding prophylaxis vary based on local epidemiology and time post-transplant [2, 3]. Current American Society of Transplantation guidelines recommend 6–12 months of Coccidioides prophylaxis for recipients living in endemic regions. Risk stratification for these patient populations may be helpful in determining the safety of withholding prophylaxis. Unfortunately, current commonly used diagnostic testing (Coccidioides serology) is not sensitive for remote infection [4, 5], which may reactivate and disseminate in the setting of immunosuppression. Skin testing is an attractive alternative but is cumbersome, insensitive, and infrequently used [6].</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2022-08-29</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Clinical Infectious Diseases</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>https://openalex.org/S72350973</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Oxford University Press</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>1058-4838</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/cid/ciac706</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>368</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>369</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>76</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>c(funder = "https://openalex.org/F4320318431", funder_display_name = "Veracyte")</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="Y14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
+      <c r="Z14" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="AA11" t="inlineStr">
+      <c r="AA14" t="inlineStr">
         <is>
           <t>https://api.openalex.org/works?filter=cites:W4293475271</t>
         </is>
       </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AB14" t="inlineStr">
         <is>
           <t>c(openalex = "https://openalex.org/W4293475271", doi = "https://doi.org/10.1093/cid/ciac706", pmid = "https://pubmed.ncbi.nlm.nih.gov/36037080")</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
+      <c r="AC14" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/cid/ciac706</t>
         </is>
       </c>
-      <c r="AD11" t="inlineStr">
+      <c r="AD14" t="inlineStr">
         <is>
           <t>article</t>
         </is>
       </c>
-      <c r="AE11" t="inlineStr">
+      <c r="AE14" t="inlineStr">
         <is>
           <t>c("https://openalex.org/W2016227754", "https://openalex.org/W2278074394", "https://openalex.org/W2886919985", "https://openalex.org/W2913091535", "https://openalex.org/W2933443562", "https://openalex.org/W2979259595", "https://openalex.org/W3197817639")</t>
         </is>
       </c>
-      <c r="AF11" t="inlineStr">
+      <c r="AF14" t="inlineStr">
         <is>
           <t>c("https://openalex.org/W2333066761", "https://openalex.org/W4287091864", "https://openalex.org/W2102458507", "https://openalex.org/W1534330724", "https://openalex.org/W2423011516", "https://openalex.org/W1515306984", "https://openalex.org/W3159729891", "https://openalex.org/W2020360709", "https://openalex.org/W1023771799", "https://openalex.org/W2074183598")</t>
         </is>
       </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
         <is>
           <t>FALSE</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>https://openalex.org/W4294099118</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>Phytochemical and in silico study on Lupinus subcarnosus Hook, its effect on neuronal α4β2 nicotinic acetylcholine receptors (nAChRs) and the major alkaloids</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>list(au_id = c("https://openalex.org/A5011920718", "https://openalex.org/A5007537729", "https://openalex.org/A5074318066", "https://openalex.org/A5042355962", "https://openalex.org/A5015957295", "https://openalex.org/A5047742256", "https://openalex.org/A5015736770", "https://openalex.org/A5006048385", "https://openalex.org/A5020632610"), au_display_name = c("Marghny H. Mohamed", "Saleh Abdullah Alghamdi", "Ali Alquraini", "Adel Alghamdi", "Ibrahim M. Shatla", "Abd El Nasser El Shorbagi", "Sachin Chaudhary", 
 "Omar M. Aly", "Muhamad Mustafa"), au_orcid = c("https://orcid.org/0000-0001-6197-0690", NA, "https://orcid.org/0000-0003-4216-572X", "https://orcid.org/0000-0002-8063-0090", "https://orcid.org/0000-0001-6718-7322", NA, "https://orcid.org/0000-0001-5192-9336", "https://orcid.org/0000-0001-9299-920X", "https://orcid.org/0000-0002-1384-7556"), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("Pharmacognosy Department, College of Clinical Pharmacy, Albaha University, Saudi Arabia", 
@@ -2355,174 +2875,174 @@
 "https://openalex.org/I52207611", "https://openalex.org/I184834183", "https://openalex.org/I29891158", "https://openalex.org/I29891158", "https://openalex.org/I88017793", "https://openalex.org/I11935315, https://openalex.org/I2802056588"))</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>2022-08-31</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Octahedron Drug Research</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>https://openalex.org/S4387282663</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Egypts Presidential Specialized Council for Education and Scientific Research</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>2812-636X</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>https://doi.org/10.21608/odr.2022.155742.1007</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>https://odr.journals.ekb.eg/article_257288_7c2286f0bf04ed9dc456fb59ad1ccf45.pdf</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr">
+      <c r="R15" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="S15" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>https://odr.journals.ekb.eg/article_257288_7c2286f0bf04ed9dc456fb59ad1ccf45.pdf</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="X15" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
+      <c r="Y15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
+      <c r="Z15" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="AA12" t="inlineStr">
+      <c r="AA15" t="inlineStr">
         <is>
           <t>https://api.openalex.org/works?filter=cites:W4294099118</t>
         </is>
       </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AB15" t="inlineStr">
         <is>
           <t>c(openalex = "https://openalex.org/W4294099118", doi = "https://doi.org/10.21608/odr.2022.155742.1007")</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
+      <c r="AC15" t="inlineStr">
         <is>
           <t>https://doi.org/10.21608/odr.2022.155742.1007</t>
         </is>
       </c>
-      <c r="AD12" t="inlineStr">
+      <c r="AD15" t="inlineStr">
         <is>
           <t>article</t>
         </is>
       </c>
-      <c r="AE12" t="inlineStr">
+      <c r="AE15" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AF12" t="inlineStr">
+      <c r="AF15" t="inlineStr">
         <is>
           <t>c("https://openalex.org/W2077339822", "https://openalex.org/W2356169571", "https://openalex.org/W1981881599", "https://openalex.org/W4317639052", "https://openalex.org/W3023630691", "https://openalex.org/W1983993763", "https://openalex.org/W1570361834", "https://openalex.org/W3126718520", "https://openalex.org/W2035238491", "https://openalex.org/W3104583766")</t>
         </is>
       </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr">
         <is>
           <t>FALSE</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>https://openalex.org/W4313365134</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>Beta-Lactamases Inhibitors: A Perspective on the Existing and the Potential Admixtures to Synergize Beta-lactams Versus Resistant Superbugs</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>list(au_id = c("https://openalex.org/A5066676165", "https://openalex.org/A5015736770", "https://openalex.org/A5091427498", "https://openalex.org/A5090436057", "https://openalex.org/A5090321296", "https://openalex.org/A5032538936"), au_display_name = c("Abdel‐Nasser El‐Shorbagi", "Sachin Chaudhary", "Anurag Chaudhary", "Garima Agarwal", "Prem Prakash Tripathi", "Shweta Dumoga"), au_orcid = c("https://orcid.org/0000-0002-3042-6980", "https://orcid.org/0000-0001-5192-9336", "https://orcid.org/0000-0002-1657-811X", 
 NA, "https://orcid.org/0000-0002-2583-8382", "https://orcid.org/0000-0001-6344-6462"), author_position = c("first", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("1Department of Medicinal Chemistry, College of Pharmacy, University of Sharjah, Sharjah, United Arab Emirates.", "1Department of Medicinal Chemistry, College of Pharmacy, University of Sharjah, Sharjah, United Arab Emirates.", "3Department of Pharmaceutical Technology, Meerut Institute of Engineering and Technology, NH-58, Baghpat Road Crossing, Bypass Road, Meerut, Uttar Pradesh, India.", 
@@ -2531,142 +3051,142 @@
 "https://ror.org/02z2sk479"), institution_country_code = c("AE", "AE", "IN", "IN", "IN", "IN"), institution_type = c("education", "education", "education", "education", "education", "education"), institution_lineage = c("https://openalex.org/I29891158", "https://openalex.org/I29891158", "https://openalex.org/I191247993", "https://openalex.org/I191247993", "https://openalex.org/I191247993", "https://openalex.org/I191247993"))</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>β-lactam antibiotics are considered the safest bactericides, and upon wide clinical use of benzyl penicillin G in 1945, outbreaks of resistance came out. The frequent semi-synthetic strategies revealed β-lactam generations that are of broad-spectrum activity. The new agents as well as their concomitant use with known inhibitors of β-lactamases potentiate their effectiveness versus higher numbers of resistant pathogens. However, the extremely resistant pathogens are still representing a burden. Efforts had been continued to find more inhibitors of β-lactamases to combine with β-lactams to provide good management of infections by extremely resistant microbes. The purpose of this work is to overview the conventional and the recently introduced β-lactamases in clinical applications, as well as some reported effective inhibitors of β-lactamases. The review pinpoints the inhibitors that can be mixed and/or merged with the beta-lactam antibiotics to effectively treat the microbial infections producing resistant-β-lactamases. ClogP for these drugs and candidate inhibitors is introduced as suggestions to open a door for developers to admix derivatives with suitable pharmacokinetics.</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2022-12-20</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Biomedical and Pharmacology Journal</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>https://openalex.org/S2764856905</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Oriental Scientific Publishing Company</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>0974-6242</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>https://doi.org/10.13005/bpj/2519</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>1797</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>1819</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr">
+      <c r="R16" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="S16" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t>https://doi.org/10.13005/bpj/2519</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
+      <c r="X16" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
+      <c r="Y16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
+      <c r="Z16" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="AA13" t="inlineStr">
+      <c r="AA16" t="inlineStr">
         <is>
           <t>https://api.openalex.org/works?filter=cites:W4313365134</t>
         </is>
       </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AB16" t="inlineStr">
         <is>
           <t>c(openalex = "https://openalex.org/W4313365134", doi = "https://doi.org/10.13005/bpj/2519")</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
+      <c r="AC16" t="inlineStr">
         <is>
           <t>https://doi.org/10.13005/bpj/2519</t>
         </is>
       </c>
-      <c r="AD13" t="inlineStr">
+      <c r="AD16" t="inlineStr">
         <is>
           <t>article</t>
         </is>
       </c>
-      <c r="AE13" t="inlineStr">
+      <c r="AE16" t="inlineStr">
         <is>
           <t>c("https://openalex.org/W168483134", "https://openalex.org/W1514738334", "https://openalex.org/W1536681123", "https://openalex.org/W1555343774", "https://openalex.org/W1619683848", "https://openalex.org/W1759563363", "https://openalex.org/W1768032859", "https://openalex.org/W1895007034", "https://openalex.org/W1952701900", "https://openalex.org/W1964841429", "https://openalex.org/W1966007441", "https://openalex.org/W1969435224", "https://openalex.org/W1969586568", "https://openalex.org/W1970340369", 
 "https://openalex.org/W1970559386", "https://openalex.org/W1971047448", "https://openalex.org/W1976078755", "https://openalex.org/W1976566108", "https://openalex.org/W1977477057", "https://openalex.org/W1979722126", "https://openalex.org/W1982500258", "https://openalex.org/W1982890311", "https://openalex.org/W1986812765", "https://openalex.org/W1987635163", "https://openalex.org/W1989169986", "https://openalex.org/W1990740960", "https://openalex.org/W1991081015", "https://openalex.org/W1998499425", 
@@ -2681,364 +3201,541 @@
 "https://openalex.org/W3122825960", "https://openalex.org/W3207449035", "https://openalex.org/W4226214387", "https://openalex.org/W4298146468", "https://openalex.org/W4320578151")</t>
         </is>
       </c>
-      <c r="AF13" t="inlineStr">
+      <c r="AF16" t="inlineStr">
         <is>
           <t>c("https://openalex.org/W2068407850", "https://openalex.org/W2413748453", "https://openalex.org/W2475059366", "https://openalex.org/W2056301128", "https://openalex.org/W1958176239", "https://openalex.org/W2417290625", "https://openalex.org/W78274780", "https://openalex.org/W2410498550", "https://openalex.org/W2280904087", "https://openalex.org/W100674981")</t>
         </is>
       </c>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="AH16" t="inlineStr">
         <is>
           <t>FALSE</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>https://openalex.org/W4320002962</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>A comparative study on treatment seeking behaviour of geriatric population in rural and urban areas of district Kanpur, Uttar Pradesh</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>list(au_id = c("https://openalex.org/A5031511311", "https://openalex.org/A5015418066", "https://openalex.org/A5001161034", "https://openalex.org/A5015736770"), au_display_name = c("Shiv Ratan", "Seema Nigam", "Tanu Midha", "Sachin Chaudhary"), au_orcid = c("https://orcid.org/0000-0003-4050-0846", "https://orcid.org/0009-0002-2049-4362", "https://orcid.org/0000-0002-2631-672X", "https://orcid.org/0000-0001-5192-9336"), author_position = c("first", "middle", "middle", "last"), au_affiliation_raw = c("Ganesh Shankar Vidyarthi Memorial Medical Kanpur, Uttar Pradesh", 
 "Ganesh Shankar Vidyarthi Memorial Medical Kanpur, Uttar Pradesh", "", ""), institution_id = c("https://openalex.org/I2802359691", "https://openalex.org/I2802359691", NA, NA), institution_display_name = c("Ganesh Shankar Vidyarthi Memorial Medical College", "Ganesh Shankar Vidyarthi Memorial Medical College", NA, NA), institution_ror = c("https://ror.org/002ztb251", "https://ror.org/002ztb251", NA, NA), institution_country_code = c("IN", "IN", NA, NA), institution_type = c("education", "education", 
 NA, NA), institution_lineage = c("https://openalex.org/I2802359691", "https://openalex.org/I2802359691", NA, NA))</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>Background: Aging is a complex and universal life process. Treatment seeking behaviour in elderly is affected by socio-economic factors and by affordability, availability and accessibility of healthcare. Objectives: To study treatment-seeking behaviour of the study subjects. To compare treatment seeking behaviour among rural and urban study subjects. Methods: This was a cross-sectional study conducted in the Kanpur district. Selection of villages in rural and mohallas in urban areas was done using a multistage random sampling technique. A total of 600 subjects were studied, including 400 from urban areas and 200 from rural areas. Elderly persons&amp;gt;60 years of age, both males and females were included in the study. Results: Overall, out of 600 study subjects, 59.8% were taking treatment in rural areas and in urban areas 77.6% were taking treatment. In urban areas, more females availed treatment compared to rural areas. Majority of study subjects (56.5%) sought treatment from a government hospital. Only 36% subjects had health insurance. Conclusion: In Urban areas more subjects availed treatment as compared to rural areas. Majority of subjects sought treatment from government health facilities. Lack of financial support and long waiting time were major reasons for not availing health care.</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2022-12-31</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Indian Journal of Community Health</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>https://openalex.org/S2737651596</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>Indian Association of Preventive and Social Medicine, Uttar Pradesh &amp; Uttarakhand</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>0971-7587</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>https://doi.org/10.47203/ijch.2022.v34i04.011</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>https://www.iapsmupuk.org/journal/index.php/IJCH/article/download/2416/1349</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>530</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>534</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr">
+      <c r="R17" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="S17" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="T17" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="U17" t="inlineStr">
         <is>
           <t>https://www.iapsmupuk.org/journal/index.php/IJCH/article/download/2416/1349</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="V17" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
+      <c r="W17" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="X14" t="inlineStr">
+      <c r="X17" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr">
+      <c r="Y17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
+      <c r="Z17" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="AA14" t="inlineStr">
+      <c r="AA17" t="inlineStr">
         <is>
           <t>https://api.openalex.org/works?filter=cites:W4320002962</t>
         </is>
       </c>
-      <c r="AB14" t="inlineStr">
+      <c r="AB17" t="inlineStr">
         <is>
           <t>c(openalex = "https://openalex.org/W4320002962", doi = "https://doi.org/10.47203/ijch.2022.v34i04.011")</t>
         </is>
       </c>
-      <c r="AC14" t="inlineStr">
+      <c r="AC17" t="inlineStr">
         <is>
           <t>https://doi.org/10.47203/ijch.2022.v34i04.011</t>
         </is>
       </c>
-      <c r="AD14" t="inlineStr">
+      <c r="AD17" t="inlineStr">
         <is>
           <t>article</t>
         </is>
       </c>
-      <c r="AE14" t="inlineStr">
+      <c r="AE17" t="inlineStr">
         <is>
           <t>c("https://openalex.org/W1994776010", "https://openalex.org/W2102053381", "https://openalex.org/W2237645748", "https://openalex.org/W2554426091", "https://openalex.org/W2593367057", "https://openalex.org/W2765381722", "https://openalex.org/W2776965044", "https://openalex.org/W2915173823", "https://openalex.org/W3005212765", "https://openalex.org/W3022643316", "https://openalex.org/W3082704451")</t>
         </is>
       </c>
-      <c r="AF14" t="inlineStr">
+      <c r="AF17" t="inlineStr">
         <is>
           <t>c("https://openalex.org/W2294525979", "https://openalex.org/W3009180058", "https://openalex.org/W2151138963", "https://openalex.org/W2371368779", "https://openalex.org/W2363156686", "https://openalex.org/W2317209336", "https://openalex.org/W3125605281", "https://openalex.org/W4309961136", "https://openalex.org/W2207610522", "https://openalex.org/W4313177987")</t>
         </is>
       </c>
-      <c r="AG14" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH14" t="inlineStr">
+      <c r="AG17" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="AH17" t="inlineStr">
         <is>
           <t>FALSE</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>https://openalex.org/W4383532029</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>BIOACCUMULATION OF HEAVY METALS IN ORGANS OF FRESH WATER FISH CLARIAS BATRACHUS (MANGUR)</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>list(au_id = c("https://openalex.org/A5092421982", "https://openalex.org/A5015736770", "https://openalex.org/A5053927821"), au_display_name = c("Kumar Kapil", "Sachin Chaudhary", "P. Malik"), au_orcid = c(NA, "https://orcid.org/0000-0001-5192-9336", NA), author_position = c("first", "middle", "last"), au_affiliation_raw = c("Meerut College Meerut", "B. I. T College, Bijnaur", "S. G. (P.G.) College, Sarurpur Khurd, Meerut"), institution_id = c("https://openalex.org/I303593345", NA, NA), institution_display_name = c("Chaudhary Charan Singh University", 
 NA, NA), institution_ror = c("https://ror.org/01hzdv945", NA, NA), institution_country_code = c("IN", NA, NA), institution_type = c("education", NA, NA), institution_lineage = c("https://openalex.org/I303593345", NA, NA))</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>The present study is to determine the bioaccumulation of heavy metals invarious organs of the fresh water fish Clarias batrachus exposed to heavy metalcontaminated water system. The experimental fish were exposed to Cr, Ni, Cd andPb concentrations for periods of 48 days.the heavy metals Cd, Pb, Ni &amp;amp; Cr wereassayed using atomic absorption spectrophotometery and the result were givenas μg/g dry Wt. The accumulation of heavy metals gradually increases in liverduring the heavy metals exposure period. The heavy metal accumulation in thegills was in the order of Pb&amp;gt;Cd&amp;gt;Ni&amp;gt;Cr, the heavy metal accumulation in the liverwas in the order of Pb&amp;gt;Cd&amp;gt;Ni&amp;gt;Cr. The bioaccumulation in kidney and flesh tissueswas in the order of Pb&amp;gt;Cd&amp;gt;Cr&amp;gt;Ni and Cr&amp;gt;Pb&amp;gt;Cd&amp;gt;Ni.</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2022-07-25</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>THE SCIENTIFIC TEMPER</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>https://openalex.org/S4387285789</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>0976-8653</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>https://doi.org/10.58414/scientifictemper.2010.01.1.07</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>https://scientifictemper.com/index.php/tst/article/download/37/9</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>57</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>62</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="P18" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q18" t="inlineStr">
         <is>
           <t>01</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr">
+      <c r="R18" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr">
+      <c r="S18" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="T18" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="U18" t="inlineStr">
         <is>
           <t>https://scientifictemper.com/index.php/tst/article/download/37/9</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="X15" t="inlineStr">
+      <c r="X18" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="Y15" t="inlineStr">
+      <c r="Y18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
+      <c r="Z18" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="AA15" t="inlineStr">
+      <c r="AA18" t="inlineStr">
         <is>
           <t>https://api.openalex.org/works?filter=cites:W4383532029</t>
         </is>
       </c>
-      <c r="AB15" t="inlineStr">
+      <c r="AB18" t="inlineStr">
         <is>
           <t>c(openalex = "https://openalex.org/W4383532029", doi = "https://doi.org/10.58414/scientifictemper.2010.01.1.07")</t>
         </is>
       </c>
-      <c r="AC15" t="inlineStr">
+      <c r="AC18" t="inlineStr">
         <is>
           <t>https://doi.org/10.58414/scientifictemper.2010.01.1.07</t>
         </is>
       </c>
-      <c r="AD15" t="inlineStr">
+      <c r="AD18" t="inlineStr">
         <is>
           <t>article</t>
         </is>
       </c>
-      <c r="AE15" t="inlineStr">
+      <c r="AE18" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AF15" t="inlineStr">
+      <c r="AF18" t="inlineStr">
         <is>
           <t>c("https://openalex.org/W2058114995", "https://openalex.org/W2997630996", "https://openalex.org/W4313500367", "https://openalex.org/W3201732191", "https://openalex.org/W1485441148", "https://openalex.org/W2387312896", "https://openalex.org/W311681159", "https://openalex.org/W2394021942", "https://openalex.org/W2743456489", "https://openalex.org/W2369026369")</t>
         </is>
       </c>
-      <c r="AG15" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH15" t="inlineStr">
+      <c r="AG18" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4387719557</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Pattern of recurrent pediatric headache: A cohort of 100 children</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>list(au_id = c("https://openalex.org/A5010023158", "https://openalex.org/A5021789119", "https://openalex.org/A5029368727", "https://openalex.org/A5036686823", "https://openalex.org/A5051902511", "https://openalex.org/A5079035504"), au_display_name = c("Neerja Bhardwaj", "Sanjeev Chaudhary", "Amit Bhardwaj", "Neeraj Gupta", "VykuntarajuK Gowda", "AshwinVivek Sardesai"), au_orcid = c("https://orcid.org/0000-0001-5550-6277", NA, NA, "https://orcid.org/0000-0002-7131-4985", NA, NA), author_position = c("first", 
+"middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("Department of Pediatrics, Dr. Rajendra Prasad Govt. Medical College Kangra at Tanda, Himachal Pradesh, India", "Department of Pediatrics, Dr. Rajendra Prasad Govt. Medical College Kangra at Tanda, Himachal Pradesh, India", "Department of Neurology, Dr. Rajendra Prasad Govt. Medical College Kangra at Tanda, Himachal Pradesh, India", "Department of Neonatology, AIIMS Jodhpur, Rajasthan, India", "Department of Pediatric Neurology, Indira Gandhi Institute of Child Health Bangalore, Karnataka, India", 
+"Department of Pediatric Neurology, Indira Gandhi Institute of Child Health Bangalore, Karnataka, India"), institution_id = c("https://openalex.org/I4210148181", "https://openalex.org/I4210148181", "https://openalex.org/I4210148181", "https://openalex.org/I216021267", "https://openalex.org/I4210158200", "https://openalex.org/I4210158200"), institution_display_name = c("Dr. Rajendra Prasad Government Medical College", "Dr. Rajendra Prasad Government Medical College", "Dr. Rajendra Prasad Government Medical College", 
+"All India Institute of Medical Sciences Jodhpur", "Indira Gandhi Institute of Child Health", "Indira Gandhi Institute of Child Health"), institution_ror = c("https://ror.org/04ce4rf90", "https://ror.org/04ce4rf90", "https://ror.org/04ce4rf90", "https://ror.org/05e15a779", "https://ror.org/04saq4y86", "https://ror.org/04saq4y86"), institution_country_code = c("IN", "IN", "IN", "IN", "IN", "IN"), institution_type = c("education", "education", "education", "education", "healthcare", "healthcare"), 
+    institution_lineage = c("https://openalex.org/I4210148181", "https://openalex.org/I4210148181", "https://openalex.org/I4210148181", "https://openalex.org/I216021267, https://openalex.org/I4210148677", "https://openalex.org/I4210158200", "https://openalex.org/I4210158200"))</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Introduction:&lt;/b&gt; This study was conducted to provide detailed information about clinical characteristics and short-term treatment outcome of childhood headache. &lt;b&gt;Materials and Methods:&lt;/b&gt; This prospective observational study was done over a period of 15 months (January 2013 to March 2014) at a rural tertiary care center in North India. Detailed history, clinical examination, specialty review, and follow-up details were maintained on pretested structured proforma. Final diagnosis of headache type was made as per International Classification of Headache Disorders, 2nd edition. &lt;b&gt;Results:&lt;/b&gt; Out of 100 (45 boys) children aged 8–18 years, 52% were diagnosed with migraine, 23% with tension-type headache, and 25% with secondary headache. Diffuse headache was the commonest (41%), and photophobia, phonophobia, and dizziness were the commonest symptoms in all headache subtypes. Sixty-five percentage of migraine headache were triggered by exertion. Lack of sleep and anxiety were triggers in most (65%) of tension type headache. Of 52 migraine children, 21 were started on prophylaxis for migraine and 14 of them reported significant improvement. Secondary causes for headache were found in 25% of children and half of them were having refractive errors. &lt;b&gt;Conclusions:&lt;/b&gt; Results of the study show migraine being the commonest type of headache in children followed by secondary headache. This study also highlights the need for long-term follow-up of childhood headache.</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2022-01-01</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Journal of Pediatric Neurosciences</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://openalex.org/S195430055</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Medknow</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>1817-1745</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.4103/jpn.jpn_142_20</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>https://api.openalex.org/works?filter=cites:W4387719557</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>c(openalex = "https://openalex.org/W4387719557", doi = "https://doi.org/10.4103/jpn.jpn_142_20")</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.4103/jpn.jpn_142_20</t>
+        </is>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>c("https://openalex.org/W1987154055", "https://openalex.org/W1987449740", "https://openalex.org/W1989499763", "https://openalex.org/W1989537855", "https://openalex.org/W1996136485", "https://openalex.org/W2007193001", "https://openalex.org/W2021662083", "https://openalex.org/W2062616749", "https://openalex.org/W2074256173", "https://openalex.org/W2076569501", "https://openalex.org/W2078144872", "https://openalex.org/W2084927512", "https://openalex.org/W2093370271", "https://openalex.org/W2106518663", 
+"https://openalex.org/W2109212419", "https://openalex.org/W2132689324", "https://openalex.org/W2135718058", "https://openalex.org/W2152007006", "https://openalex.org/W2769724041", "https://openalex.org/W2800323269", "https://openalex.org/W2806669616", "https://openalex.org/W2885199469", "https://openalex.org/W2900091888")</t>
+        </is>
+      </c>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>c("https://openalex.org/W1966605563", "https://openalex.org/W4207056969", "https://openalex.org/W2020802408", "https://openalex.org/W1978753422", "https://openalex.org/W181586006", "https://openalex.org/W4313043634", "https://openalex.org/W2029248794", "https://openalex.org/W1992468542", "https://openalex.org/W2329765567", "https://openalex.org/W2099842030")</t>
+        </is>
+      </c>
+      <c r="AG19" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="AH19" t="inlineStr">
         <is>
           <t>FALSE</t>
         </is>

--- a/DOM_Banner/output/dept_banner/Sachin Chaudhary_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Sachin Chaudhary_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,39 +452,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Tulane University, New Orleans, Louisiana, United States; Pulmonary, Critical Care, and Sleep Medicine, Piedmont Healthcare, Atlanta, Georgia;; Tel Aviv Sourasky Medical Center, 26738, Pulmonary Institute, Tel Aviv, Israel; Center for Interstitial and Rare Lung Diseases, Department of Pneumology, Thoraxklinik, University of Heidelberg, Heidelberg, Germany;; German Center for Lung Research, Heidelberg, Germany;; University of Utah Health, 14434, Division of Pulmonary Medicine, Salt Lake City, Utah, United States; University of Arizona College of Medicine at South Campus Graduate Medical Education, 244298, Pulmonary Critical Care Medicine, Tucson, Arizona, United States; Clinical Operations,; Research and Development, and; Research and Development, and; Veracyte Inc, 443704, South San Francisco, California, United States;; Veracyte, Inc., Research and Development, South San Francisco, California, United States</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4200201914</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>The Impact of the Envisia Genomic Classifier in the Diagnosis and Management of Patients with Idiopathic Pulmonary Fibrosis</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-06-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Annals of the American Thoracic Society</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>American Thoracic Society</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1513/annalsats.202107-897oc</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -487,35 +492,40 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/34889723</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1513/annalsats.202107-897oc</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t xml:space="preserve">Department of Medicine, Weill Cornell Medical College, New York, USA; Department of Medicine, University of Virginia School of Medicine, Charlottesville, USA; Department of Medicine and Department of Physiology, University of California Los Angeles David Geffen School of Medicine, Los Angeles, USA; Deparment of Medicine, Tulane University School of Medicine, New Orleans, USA; Department of Biostatistics, University of Michigan, Ann Arbor, USA; Deparment of Medicine, University of Michigan, Ann Arbor, USA; Department of Medicine and Department of Laboratory Medicine and Pathology, University of Washington, Seattle, USA; Deparment of Medicine, University of Michigan, Ann Arbor, USA; Department of Biostatistics, University of Michigan, Ann Arbor, USA; Department of Medicine, University of Virginia School of Medicine, Charlottesville, USA; Department of Medicine, Weill Cornell Medical College, New York, USA; ; ; ; ; ; ; ; ; ; ; ; ; Department of Medicine, Weill Cornell Medical College, New York, USA; ; ; ; ; ; ; Deparment of Medicine, University of Michigan, Ann Arbor, USA; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; Department of Medicine, University of Virginia School of Medicine, Charlottesville, USA; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4311349139</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Design and rationale for the prospective treatment efficacy in IPF using genotype for NAC selection (PRECISIONS) clinical trial</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-12-13</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>BMC Pulmonary Medicine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>BioMed Central</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1186/s12890-022-02281-8</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36514019</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1186/s12890-022-02281-8</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,39 +626,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Division of Pulmonary and Critical Care Medicine, University of Arizona.; Division of Pulmonary and Critical Care Medicine, University of California at Los Angeles.; Department of Pulmonary Medicine, Cleveland Clinic.; Division of Pulmonary and Critical Care Medicine, Medical College of Wisconsin, Milwaukee, WI, USA; Division of Pulmonary, Critical Care and Sleep Medicine Medicine, University of California at Davis.; Division of Pulmonary and Critical Care and Sleep Medicine, National Jewish Health, Denver, CO, USA; Division of Pulmonary and Critical Care Medicine, University of Arizona.; Division of Pulmonary and Critical Care Medicine, University of California at Los Angeles.; Division of Pulmonary and Critical Care Medicine, Massachusetts General Hospital.; Division of Pulmonary and Critical Care Medicine, Medical College of Wisconsin, Milwaukee, WI, USA; Northeast Georgia Physicians Group; Division of Pulmonary and Critical Care and Sleep Medicine, National Jewish Health, Denver, CO, USA; Division of Pulmonary, Critical Care and Sleep Medicine Medicine, University of California at Davis.; Division of Pulmonary and Critical Care Medicine, Tulane University.; Division of Pulmonary and Critical Care Medicine, University of Michigan, Ann Arbor, MI, USA</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4312113381</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Interstitial lung disease progression after genomic usual interstitial pneumonia testing</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-12-22</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>The European respiratory journal</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>European Respiratory Society</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1183/13993003.01245-2022</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -651,35 +666,40 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36549706</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1183/13993003.01245-2022</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Department of Medicine, Duke University, Durham, North Carolina; and.; Department of Medicine, University of Arizona, Tucson, Arizona.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4226282761</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Uncovering the Epidemiology of Idiopathic Pulmonary Fibrosis in the Veterans Affairs Health System</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2022-02-01</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Annals of the American Thoracic Society</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>American Thoracic Society</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1513/annalsats.202108-972ed</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35103565</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1513/annalsats.202108-972ed</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>1Department of Medicinal Chemistry, College of Pharmacy, University of Sharjah, Sharjah, United Arab Emirates.; 1Department of Medicinal Chemistry, College of Pharmacy, University of Sharjah, Sharjah, United Arab Emirates.; 2Department of Pharmaceutical Technology, Meerut Institute of Engineering and Technology, NH-58, Baghpat Road Crossing, Bypass Road, Meerut, India.; 2Department of Pharmaceutical Technology, Meerut Institute of Engineering and Technology, NH-58, Baghpat Road Crossing, Bypass Road, Meerut, India.; 2Department of Pharmaceutical Technology, Meerut Institute of Engineering and Technology, NH-58, Baghpat Road Crossing, Bypass Road, Meerut, India.; 2Department of Pharmaceutical Technology, Meerut Institute of Engineering and Technology, NH-58, Baghpat Road Crossing, Bypass Road, Meerut, India.; 1Department of Medicinal Chemistry, College of Pharmacy, University of Sharjah, Sharjah, United Arab Emirates.; 1Department of Medicinal Chemistry, College of Pharmacy, University of Sharjah, Sharjah, United Arab Emirates.; 1Department of Medicinal Chemistry, College of Pharmacy, University of Sharjah, Sharjah, United Arab Emirates.; 3Department of Pharmacology, Hygia Institute of Pharmaceutical Education and Research Lucknow, Uttar Pradesh, India.; 4Department of Pharmacognosy, College of Clinical Pharmacy, Albaha University, Saudi Arabia.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4284882601</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Marine Antineoplastic Templates: Clinical trials (I-III) and Motifs Carried via Antibodies to Target Specific Cancerous Tissues</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2022-06-30</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Biomedical and Pharmacology Journal</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Oriental Scientific Publishing Company</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.13005/bpj/2398</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I6" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.13005/bpj/2398</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,39 +887,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Galgotias University,DEECE,Greater Noida; Galgotias University,DEECE,Greater Noida; Galgotias University,DEECE,Greater Noida; Galgotias University,DEECE,Greater Noida</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4291801969</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>IOT based Smart Agriculture Monitoring Using Node MCU AND BLYNK App</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2022-05-26</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>2022 International Conference on Machine Learning, Big Data, Cloud and Parallel Computing (COM-IT-CON)</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G7" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1109/com-it-con54601.2022.9850847</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -897,35 +927,40 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1109/com-it-con54601.2022.9850847</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,75 +974,80 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Department of pharmaceutics, Shivalik College of pharmacy, Naya Nangal, Punjab, India; Department of pharmaceutics, Shivalik College of pharmacy, Naya Nangal, Punjab, India; Department of pharmaceutical chemistry, Shivalik College of pharmacy, Naya Nangal, Punjab, India</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4210760941</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Recent Development in Floating Drug Delivery System: An Overview</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2022-01-15</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Journal of Drug Delivery and Therapeutics</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Society of Pharmaceutical Tecnocrats</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://doi.org/10.22270/jddt.v12i1.5171</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I8" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.22270/jddt.v12i1.5171</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1021,75 +1061,80 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>1Department of Medicinal Chemistry, College of Pharmacy, University of Sharjah, Sharjah, United Arab Emirates.; 1Department of Medicinal Chemistry, College of Pharmacy, University of Sharjah, Sharjah, United Arab Emirates.; 2Department of Pharmaceutical Technology, Meerut Institute of Engineering and Technology, NH-58, Baghpat Road Crossing, Bypass Road, Meerut, India.; 2Department of Pharmaceutical Technology, Meerut Institute of Engineering and Technology, NH-58, Baghpat Road Crossing, Bypass Road, Meerut, India.; 2Department of Pharmaceutical Technology, Meerut Institute of Engineering and Technology, NH-58, Baghpat Road Crossing, Bypass Road, Meerut, India.; 2Department of Pharmaceutical Technology, Meerut Institute of Engineering and Technology, NH-58, Baghpat Road Crossing, Bypass Road, Meerut, India.</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4298146468</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>The Recent Updates on Neoteric Variants of Covid-19 Virus and Therapeutic Effectiveness of Vaccines against the Variants.</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2022-09-29</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Biomedical and Pharmacology Journal</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Oriental Scientific Publishing Company</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>https://doi.org/10.13005/bpj/2456</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I9" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>https://doi.org/10.13005/bpj/2456</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1103,75 +1148,80 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>GMC Nagpur, Nagpur; GMC Nagpur, Nagpur; GMC Nagpur, Nagpur; GMC Nagpur, Nagpur</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>https://openalex.org/W3039074189</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Pattern of Road Traffic Accident Patients Admitted In Government Medical College and Hospital Nagpur – A Cross Sectional Study</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2022-03-10</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>National journal of community medicine</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G10" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
           <t>https://doi.org/10.5455/njcm.20200324100821</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>cc-by-sa</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>https://doi.org/10.5455/njcm.20200324100821</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1185,75 +1235,80 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4210649205</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Awareness and Satisfaction About COVAXIN Vaccination Services at an Immunization Clinic in Nagpur: A Cross-Sectional Study</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2022-01-06</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Cureus</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Cureus, Inc.</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>https://doi.org/10.7759/cureus.20983</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I11" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35154959</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>https://doi.org/10.7759/cureus.20983</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1267,75 +1322,80 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4220807774</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Anaesthetic management of severe dextroscoliosis in a post-covid patient undergoing lumbar fixation and laminectomy</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2022-03-11</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Medical science</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G12" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
           <t>https://doi.org/10.54905/disssi/v26i121/ms97e2108</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I12" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>https://doi.org/10.54905/disssi/v26i121/ms97e2108</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1349,75 +1409,80 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>1Department of Pharmacology, Hygia Institute of Pharmaceutical Education and Research Lucknow, Uttar Pradesh, India; 2Department of Medicinal Chemistry, College of Pharmacy, University of Sharjah, Sharjah, United Arab Emirates; 2Department of Medicinal Chemistry, College of Pharmacy, University of Sharjah, Sharjah, United Arab Emirates; 3Department of Pharmaceutics, Hygia Institute of Pharmaceutical Education and Research Lucknow, Uttar Pradesh, India; 3Department of Pharmaceutics, Hygia Institute of Pharmaceutical Education and Research Lucknow, Uttar Pradesh, India; 4Department of Pharmacognosy, Moradabad Educational Trust Group of Institutions, Faculty of Pharmacy, Moradabad, Uttar Pradesh, India; 5Department of Pharmaceutics, School pf Pharmaceutical and Population Health Information, Dehradun Institute of Technology University, Dehradun, Uttarakhand, India; 6Department of Pharmaceutics, Royal College of Pharmacy and Health Sciences, Berhampur, Orissa, India</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4284709707</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>A Comprehensive Review of Experimental Animal Models of Hepatopathy.</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2022-06-30</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Biomedical and Pharmacology Journal</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Oriental Scientific Publishing Company</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>https://doi.org/10.13005/bpj/2397</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I13" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>https://doi.org/10.13005/bpj/2397</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1431,39 +1496,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>Department of Medicine, University of Arizona College of Medicine Tucson , Tucson, AZ , USA; Department of Medicine, University of Arizona College of Medicine Tucson , Tucson, AZ , USA; Department of Medicine, University of Arizona College of Medicine Tucson , Tucson, AZ , USA; Department of Medicine, University of Arizona College of Medicine Phoenix , Phoenix, AZ , USA</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4293475271</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Prophylaxis in Lung Transplant Recipients</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2022-08-29</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Clinical Infectious Diseases</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Oxford University Press</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/cid/ciac706</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I14" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1471,35 +1536,40 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36037080</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/cid/ciac706</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1513,75 +1583,80 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>Pharmacognosy Department, College of Clinical Pharmacy, Albaha University, Saudi Arabia; Clinical pharmacy department, College of Clinical Pharmacy,‬ ‪ ‬ ‪AlBaha University, Saudi Arabia‬‬‬‬‬‬‬‬‬‬‬‬‬‬‬; Pharmaceutical chemistry department, College of Clinical Pharmacy,‬ ‪AlBaha University, Saudi Arabia‬‬‬‬‬‬‬‬‬‬; Pharmaceutical chemistry department, College of Clinical Pharmacy,‬ ‪AlBaha University, Saudi Arabia‬‬‬‬‬‬‬‬‬‬; Department of Physiology, Damietta Faculty of Medicine, Al-Azhar University, Egypt; Department of Medicinal Chemistry, Faculty of Pharmacy, Al Sharjah University, United Arab Emirates.; Department of Medicinal Chemistry, Faculty of Pharmacy, Al Sharjah University, United Arab Emirates.; Department of Medicinal Chemistry, Faculty of Pharmacy, Port Said University; IBMM, Univ. Montpellier, ENSCM, Montpellier, France</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4294099118</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>Phytochemical and in silico study on Lupinus subcarnosus Hook, its effect on neuronal α4β2 nicotinic acetylcholine receptors (nAChRs) and the major alkaloids</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2022-08-31</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Octahedron Drug Research</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Egypts Presidential Specialized Council for Education and Scientific Research</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>https://doi.org/10.21608/odr.2022.155742.1007</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I15" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>https://doi.org/10.21608/odr.2022.155742.1007</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1595,75 +1670,80 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>1Department of Medicinal Chemistry, College of Pharmacy, University of Sharjah, Sharjah, United Arab Emirates.; 1Department of Medicinal Chemistry, College of Pharmacy, University of Sharjah, Sharjah, United Arab Emirates.; 3Department of Pharmaceutical Technology, Meerut Institute of Engineering and Technology, NH-58, Baghpat Road Crossing, Bypass Road, Meerut, Uttar Pradesh, India.; 3Department of Pharmaceutical Technology, Meerut Institute of Engineering and Technology, NH-58, Baghpat Road Crossing, Bypass Road, Meerut, Uttar Pradesh, India.; 3Department of Pharmaceutical Technology, Meerut Institute of Engineering and Technology, NH-58, Baghpat Road Crossing, Bypass Road, Meerut, Uttar Pradesh, India.; 3Department of Pharmaceutical Technology, Meerut Institute of Engineering and Technology, NH-58, Baghpat Road Crossing, Bypass Road, Meerut, Uttar Pradesh, India.</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4313365134</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>Beta-Lactamases Inhibitors: A Perspective on the Existing and the Potential Admixtures to Synergize Beta-lactams Versus Resistant Superbugs</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2022-12-20</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Biomedical and Pharmacology Journal</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Oriental Scientific Publishing Company</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>https://doi.org/10.13005/bpj/2519</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I16" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>https://doi.org/10.13005/bpj/2519</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1677,75 +1757,80 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t xml:space="preserve">Ganesh Shankar Vidyarthi Memorial Medical Kanpur, Uttar Pradesh; Ganesh Shankar Vidyarthi Memorial Medical Kanpur, Uttar Pradesh; ; </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4320002962</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>A comparative study on treatment seeking behaviour of geriatric population in rural and urban areas of district Kanpur, Uttar Pradesh</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2022-12-31</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Indian Journal of Community Health</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>Indian Association of Preventive and Social Medicine, Uttar Pradesh &amp; Uttarakhand</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>https://doi.org/10.47203/ijch.2022.v34i04.011</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>https://doi.org/10.47203/ijch.2022.v34i04.011</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1759,75 +1844,80 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>Meerut College Meerut; B. I. T College, Bijnaur; S. G. (P.G.) College, Sarurpur Khurd, Meerut</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4383532029</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>BIOACCUMULATION OF HEAVY METALS IN ORGANS OF FRESH WATER FISH CLARIAS BATRACHUS (MANGUR)</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2022-07-25</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>THE SCIENTIFIC TEMPER</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G18" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
           <t>https://doi.org/10.58414/scientifictemper.2010.01.1.07</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I18" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="P18" t="inlineStr">
         <is>
           <t>https://doi.org/10.58414/scientifictemper.2010.01.1.07</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="Q18" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1841,39 +1931,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>Department of Pediatrics, Dr. Rajendra Prasad Govt. Medical College Kangra at Tanda, Himachal Pradesh, India; Department of Pediatrics, Dr. Rajendra Prasad Govt. Medical College Kangra at Tanda, Himachal Pradesh, India; Department of Neurology, Dr. Rajendra Prasad Govt. Medical College Kangra at Tanda, Himachal Pradesh, India; Department of Neonatology, AIIMS Jodhpur, Rajasthan, India; Department of Pediatric Neurology, Indira Gandhi Institute of Child Health Bangalore, Karnataka, India; Department of Pediatric Neurology, Indira Gandhi Institute of Child Health Bangalore, Karnataka, India</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4387719557</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>Pattern of recurrent pediatric headache: A cohort of 100 children</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2022-01-01</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Journal of Pediatric Neurosciences</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>Medknow</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>https://doi.org/10.4103/jpn.jpn_142_20</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I19" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1881,35 +1971,40 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="P19" t="inlineStr">
         <is>
           <t>https://doi.org/10.4103/jpn.jpn_142_20</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>article</t>
         </is>
